--- a/Power_Board_2/BOM/Bill of Materials-Power_Board_2.xlsx
+++ b/Power_Board_2/BOM/Bill of Materials-Power_Board_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvicca0-my.sharepoint.com/personal/poornack_uvicca0_onmicrosoft_com/Documents/University/Clubs/AUVic/Hardware/PCB-Power_Board_2/Power_Board_2/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE4F3ABF-5A45-43A6-B9F9-154F994F223A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F84853-B0AD-4AB6-A2A9-25447FA16F10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{1B9E0BC4-0F48-4359-BBA8-4FA42D101EEB}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{4D4091D8-52CC-4943-815F-AB9F39EBE83E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Power_Board_2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Line #</t>
   </si>
@@ -70,6 +70,108 @@
   </si>
   <si>
     <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>0.015uF</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, +/-10%, 0603 SMD, X7R</t>
+  </si>
+  <si>
+    <t>C?</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1uF 25V 0603 SMD, Ceramic</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 25V, +/- 10%, 0603 SMD, X5R</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, +/- 10%, 1206 SMD, X7R</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 10V, +/- 10%, 0805 SMD, X5R</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V 10% X7R 1608 (0603)</t>
+  </si>
+  <si>
+    <t>CMP-057-0013-1</t>
+  </si>
+  <si>
+    <t>Diode, Schottky, 60V, 2A</t>
+  </si>
+  <si>
+    <t>D?</t>
+  </si>
+  <si>
+    <t>LED, 0805 (2012), Green, Clear</t>
+  </si>
+  <si>
+    <t>6.8µH</t>
+  </si>
+  <si>
+    <t>6.8uH 1.06A</t>
+  </si>
+  <si>
+    <t>L?</t>
+  </si>
+  <si>
+    <t>3.9k</t>
+  </si>
+  <si>
+    <t>3.9k, 5%, 1/8W, 0805 SMD</t>
+  </si>
+  <si>
+    <t>R?</t>
+  </si>
+  <si>
+    <t>100R, 1%, 1/10W, 0603 SMD</t>
+  </si>
+  <si>
+    <t>150R, 1%, 1/10W, 0603, SMD</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>680, 5%, 1/8W, 0805 SMD</t>
+  </si>
+  <si>
+    <t>3.3V 250mA Linear Reg LDO</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 250MA SOT23-3</t>
+  </si>
+  <si>
+    <t>U?</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>AP2138N-3.3TRG1</t>
+  </si>
+  <si>
+    <t>CMP-045-0010-1</t>
+  </si>
+  <si>
+    <t>DC-DC Regulator, 6V-42V in, 1V-29.4V out, 500mA</t>
   </si>
 </sst>
 </file>
@@ -126,10 +228,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B73FDEB-9CC3-49FD-89F8-71F8A8527C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6DBED1-9491-41BC-842E-990728170FCA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,10 +614,328 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -772,7 +1198,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD108D96-26B6-4DF9-866D-F67E915D51AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E34E76-02A0-4044-9771-542F84ED0FF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -792,7 +1218,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4607CD3-1B74-45C5-86B0-ED8F5677CDA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD44A3E-E686-4820-AEB7-019F4ECB0F99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -800,19 +1226,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C4398BF-13E3-4FB8-B6B0-EA0E5BCA0D03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43A3334-3D4D-4AA5-9149-30D94EBC5DE8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="8966a34b-ec6c-46f3-826c-d8f2f7d74935"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="5c534bb1-62b0-46e0-9ae3-b9112d146ccd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Power_Board_2/BOM/Bill of Materials-Power_Board_2.xlsx
+++ b/Power_Board_2/BOM/Bill of Materials-Power_Board_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvicca0-my.sharepoint.com/personal/poornack_uvicca0_onmicrosoft_com/Documents/University/Clubs/AUVic/Hardware/PCB-Power_Board_2/Power_Board_2/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F84853-B0AD-4AB6-A2A9-25447FA16F10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{687411CE-57AF-473F-BA63-A62D128370D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{4D4091D8-52CC-4943-815F-AB9F39EBE83E}"/>
+    <workbookView xWindow="-25965" yWindow="1155" windowWidth="17280" windowHeight="9420" xr2:uid="{661FFB2B-6F0B-49C8-B54D-7B2428E1D6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Power_Board_2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="483">
   <si>
     <t>Line #</t>
   </si>
@@ -72,16 +74,238 @@
     <t>Supplier Subtotal 1</t>
   </si>
   <si>
-    <t>0.015uF</t>
+    <t/>
+  </si>
+  <si>
+    <t>0.1μF</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 100V, +/- 10%, 0603 SMD, X7R</t>
+  </si>
+  <si>
+    <t>C1, C4, C7, C81, C82, C83, C84, C85, C86, C87</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>CGA3E3X7S2A104K080AB</t>
+  </si>
+  <si>
+    <t>Volume Production</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>445-6938-1-ND</t>
+  </si>
+  <si>
+    <t>CL31B106KBHNNNE</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 10uF 50V X7R 10% Pad SMD 1206 125°C T/R</t>
+  </si>
+  <si>
+    <t>C2, C24, C25, C26, C27, C40, C46, C52, C72</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>New Product</t>
+  </si>
+  <si>
+    <t>1276-6767-6-ND</t>
+  </si>
+  <si>
+    <t>CL10B104JB8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>C3, C5, C6, C8, C17, C22, C23, C33, C38, C39, C41, C45, C47, C49, C50, C51, C53, C64, C66, C67, C68, C69, C70, C71</t>
+  </si>
+  <si>
+    <t>1276-1033-6-ND</t>
+  </si>
+  <si>
+    <t>CL31B475KBHNNNE</t>
+  </si>
+  <si>
+    <t>Capacitor 4.7 uF 50 VDC PU=2000 ST, CL31B475KBHNNNE, Samsung</t>
+  </si>
+  <si>
+    <t>C9, C10, C21, C37</t>
+  </si>
+  <si>
+    <t>1276-2789-6-ND</t>
+  </si>
+  <si>
+    <t>470nF, 50V, 10%, 0603, Ceramic, SMD</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, 10%, 0603 SMD, X7R</t>
+  </si>
+  <si>
+    <t>C11, C28</t>
+  </si>
+  <si>
+    <t>C1608X7R1H474K080AC</t>
+  </si>
+  <si>
+    <t>445-5952-6-ND</t>
+  </si>
+  <si>
+    <t>CL10B102KB8NNNC</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.001uF 50V X7R 10% Pad SMD 0603 125°C T/R</t>
+  </si>
+  <si>
+    <t>C12, C18, C29</t>
+  </si>
+  <si>
+    <t>1276-1018-6-ND</t>
+  </si>
+  <si>
+    <t>GRM188R60J226MEA0D</t>
+  </si>
+  <si>
+    <t>MURATA - GRM188R60J226MEA0D - SMD Multilayer Ceramic Capacitor, 22 µF, 6.3 V, 0603 [1608 Metric], ± 20%, X5R, GRM Series</t>
+  </si>
+  <si>
+    <t>C13, C14, C19, C20</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>CL10C101FB8NNNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor SMD 0603 100 pF 50 V 1 %</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>1276-2159-6-ND</t>
+  </si>
+  <si>
+    <t>CL21B154KBFNNNG</t>
+  </si>
+  <si>
+    <t>CAP CER 0.15UF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>C16, C32</t>
+  </si>
+  <si>
+    <t>1276-6476-6-ND</t>
+  </si>
+  <si>
+    <t>GRM1885C2A271JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 270PF 100V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>490-1361-6-ND</t>
+  </si>
+  <si>
+    <t>C3216X5R1E476M160AC</t>
+  </si>
+  <si>
+    <t>TDK - C3216X5R1E476M160AC - SMD Multilayer Ceramic Capacitor, 47 µF, 25 V, 1206 [3216 Metric], ± 20%, X5R, C Series</t>
+  </si>
+  <si>
+    <t>C31, C35, C36</t>
+  </si>
+  <si>
+    <t>445-8047-6-ND</t>
+  </si>
+  <si>
+    <t>CGA4C2C0G1H272J060AA</t>
+  </si>
+  <si>
+    <t>CAP CER 2700PF 50V C0G 0805</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>445-5674-6-ND</t>
+  </si>
+  <si>
+    <t>GRM32ER71E226ME15K</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 25V X7R 1210</t>
+  </si>
+  <si>
+    <t>C42, C43, C48</t>
+  </si>
+  <si>
+    <t>490-14682-6-ND</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNG</t>
+  </si>
+  <si>
+    <t>SAMSUNG ELECTRO-MECHANICS - CL21B105KBFNNNG - MLCC CAPACITORS</t>
+  </si>
+  <si>
+    <t>C44, C65</t>
+  </si>
+  <si>
+    <t>1276-6470-6-ND</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.015uF 50V 0603 SMD, Ceramic</t>
   </si>
   <si>
     <t>Capacitor, Ceramic, 50V, +/-10%, 0603 SMD, X7R</t>
   </si>
   <si>
-    <t>C?</t>
-  </si>
-  <si>
-    <t/>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>CL10B153KB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1277-6-ND</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4.7uF 50V 1206 SMD, Ceramic</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, +/- 10%, 1206 SMD, X7R</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>CEUMK316AB7475KL-T</t>
+  </si>
+  <si>
+    <t>587-2994-6-ND</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>1uF 25V 0603 SMD, Ceramic</t>
@@ -90,67 +314,1045 @@
     <t>Capacitor, Ceramic, 25V, +/- 10%, 0603 SMD, X5R</t>
   </si>
   <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>Capacitor, Ceramic, 50V, +/- 10%, 1206 SMD, X7R</t>
-  </si>
-  <si>
-    <t>10µF</t>
+    <t>C56, C57</t>
+  </si>
+  <si>
+    <t>GRM188R61E105KA12D</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0.1uF, 50V, 10%, X7R, 1608</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V 10% X7R 1608 (0603)</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>CL10B104KB8SFNC</t>
+  </si>
+  <si>
+    <t>1276-1936-6-ND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10uF 10V 0805 SMD, Ceramic</t>
   </si>
   <si>
     <t>Capacitor, Ceramic, 10V, +/- 10%, 0805 SMD, X5R</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 50V 10% X7R 1608 (0603)</t>
-  </si>
-  <si>
-    <t>CMP-057-0013-1</t>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>GRM219R61A106KE44D</t>
+  </si>
+  <si>
+    <t>Not Recommended for New Design</t>
+  </si>
+  <si>
+    <t>0.1uF 100V 0603 SMD, Ceramic</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>445-6938-6-ND</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, +/-1%, 0603 SMD, C0G</t>
+  </si>
+  <si>
+    <t>C61, C62</t>
+  </si>
+  <si>
+    <t>CL10C300FB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-2259-1-ND</t>
+  </si>
+  <si>
+    <t>2.2uF, 50V, 0603 SMD, X5R, Ceramic</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, 10%, 0603 SMD, X5R</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>GRM188R61H225KE11D</t>
+  </si>
+  <si>
+    <t>490-10733-6-ND</t>
+  </si>
+  <si>
+    <t>1μF</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 50V, +/- 10%, 0603 SMD, X5R</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1860-1-ND</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 16V, +/- 10%, 0603 SMD, X7R</t>
+  </si>
+  <si>
+    <t>C74, C75</t>
+  </si>
+  <si>
+    <t>Sams</t>
+  </si>
+  <si>
+    <t>CL10B104KO8NNNC</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>1276-1005-1-ND</t>
+  </si>
+  <si>
+    <t>220nF 100V 0805 SMD, Ceramic</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 100V, +/- 10%, 0805 SMD, X7R</t>
+  </si>
+  <si>
+    <t>C76, C77, C78, C79, C80</t>
+  </si>
+  <si>
+    <t>CL21B224KCFSFNE</t>
+  </si>
+  <si>
+    <t>1276-2949-6-ND</t>
+  </si>
+  <si>
+    <t>76825-0006</t>
+  </si>
+  <si>
+    <t>CONNECTOR, HEADER, 6POS, 2ROW, 5.7MM; Product Range:Mega-Fit 76825 Series; Contact Termination Type:Through Hole; Gender:Header; No. of Contacts:6; Pitch Spacing:5.7mm; Contact Plating:Tin Plated Contacts; Contact Material:Copper</t>
+  </si>
+  <si>
+    <t>CN1, CN2, CN18</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>WM11971-ND</t>
+  </si>
+  <si>
+    <t>S7B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER XH SIDE 7POS 2.5MM</t>
+  </si>
+  <si>
+    <t>CN3, CN4</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>455-2240-ND</t>
+  </si>
+  <si>
+    <t>ST Debug Header 10-pin THT</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 10POS 2.54MM</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>SBH11-PBPC-D05-ST-BK</t>
+  </si>
+  <si>
+    <t>S9169-ND</t>
+  </si>
+  <si>
+    <t>1x2 Shrouded Right Angle</t>
+  </si>
+  <si>
+    <t>02 MTE HDR SRRA LATCH</t>
+  </si>
+  <si>
+    <t>CN6, CN7, CN8, CN9, CN10, CN11, CN12, CN13, CN14</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>5-104935-5</t>
+  </si>
+  <si>
+    <t>A33855-ND</t>
+  </si>
+  <si>
+    <t>Header, Female, 1x2, Right Angle, Pitch 0.118" (3.00mm), THT</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 2 position</t>
+  </si>
+  <si>
+    <t>CN15, CN16, CN17, CN19, CN25, CN26</t>
+  </si>
+  <si>
+    <t>43045-0202</t>
+  </si>
+  <si>
+    <t>WM1819-ND</t>
+  </si>
+  <si>
+    <t>76825-0008</t>
+  </si>
+  <si>
+    <t>MOLEX         76825-0008.             CONNECTOR, HEADER, 8POS, 2ROW, 5.7MM</t>
+  </si>
+  <si>
+    <t>CN20</t>
+  </si>
+  <si>
+    <t>WM11972-ND</t>
+  </si>
+  <si>
+    <t>Header, Female, 2x2, RIght Angle, Pitch: 0.118"  (3.00mm), THT</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 4 position 0.118" (3.00mm)</t>
+  </si>
+  <si>
+    <t>CN21, CN23, CN27</t>
+  </si>
+  <si>
+    <t>0430450402</t>
+  </si>
+  <si>
+    <t>WM1820-ND</t>
+  </si>
+  <si>
+    <t>Header, Male, 1x4, RA, Pitch 0.1" (2.54mm)</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 4 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>CN22, CN24</t>
+  </si>
+  <si>
+    <t>5-104935-1</t>
+  </si>
+  <si>
+    <t>A33860-ND</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>LED, 0805 (2012), Green, Clear</t>
+  </si>
+  <si>
+    <t>D1, D2, D6, D7, D8, D9, D11, D12, D13, D14, D18</t>
+  </si>
+  <si>
+    <t>Osram Opto</t>
+  </si>
+  <si>
+    <t>LGR971-KN-1</t>
+  </si>
+  <si>
+    <t>475-1410-6-ND</t>
+  </si>
+  <si>
+    <t>DSS14UTR</t>
+  </si>
+  <si>
+    <t>Diode, Schottky, 40V, 1A</t>
+  </si>
+  <si>
+    <t>D3, D4</t>
+  </si>
+  <si>
+    <t>Sangdest Microelectronics</t>
+  </si>
+  <si>
+    <t>1655-1927-6-ND</t>
+  </si>
+  <si>
+    <t>LED, 0805 (2012), Orange, Clear</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Vishay Lite-On</t>
+  </si>
+  <si>
+    <t>LTST-C170KFKT</t>
+  </si>
+  <si>
+    <t>160-1413-6-ND</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>RB060M-60TR</t>
   </si>
   <si>
     <t>Diode, Schottky, 60V, 2A</t>
   </si>
   <si>
-    <t>D?</t>
-  </si>
-  <si>
-    <t>LED, 0805 (2012), Green, Clear</t>
-  </si>
-  <si>
-    <t>6.8µH</t>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>LED, 0603 (1608), Blue, Clear</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>LB Q39G-L2OO-35-1</t>
+  </si>
+  <si>
+    <t>475-2816-6-ND</t>
+  </si>
+  <si>
+    <t>LED, 0805 (2012), Red, Clear</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>732-4984-6-ND</t>
+  </si>
+  <si>
+    <t>CUS08F30,H3F</t>
+  </si>
+  <si>
+    <t>Diode Schottky 30V 800mA Surface Mount USC</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>CUS08F30H3FDKR-ND</t>
+  </si>
+  <si>
+    <t>CUS08F30H3FCT-ND</t>
+  </si>
+  <si>
+    <t>Diode, Schottky, 30V, 800mA</t>
+  </si>
+  <si>
+    <t>D19, D20</t>
+  </si>
+  <si>
+    <t>SMD Fuse, 250mA, 63V, 1206</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Bel</t>
+  </si>
+  <si>
+    <t>C1Q250</t>
+  </si>
+  <si>
+    <t>507-1073-6-ND</t>
+  </si>
+  <si>
+    <t>BLM18AG601SN1D</t>
+  </si>
+  <si>
+    <t>Chip Ferrite Bead for General Use, 600 Ohm, 500 mA, -55 to 125 degC, 1.6 x 0.8 x 0.95 mm SMD, Tape and Reel</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>490-1014-6-ND</t>
+  </si>
+  <si>
+    <t>ST232BTR</t>
+  </si>
+  <si>
+    <t>IC DRVR/RCVR 5V RS232 16-TSSOP</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>497-2057-6-ND</t>
+  </si>
+  <si>
+    <t>1X2 Pin Head</t>
+  </si>
+  <si>
+    <t>JP1, JP2, JP3, JP4</t>
+  </si>
+  <si>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>M20-9730246</t>
+  </si>
+  <si>
+    <t>952-3073-ND</t>
+  </si>
+  <si>
+    <t>SRP1270-2R2M</t>
+  </si>
+  <si>
+    <t>BOURNS         SRP1270-2R2M             Surface Mount Power Inductor, SRP1270 Series, 2.2 H, 22 A, 40 A, Shielded, 4200 ohm</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SRP1270-2R2MDKR-ND</t>
+  </si>
+  <si>
+    <t>PG0936.682NL</t>
+  </si>
+  <si>
+    <t>Inductor Power Shielded Wirewound 6.8uH/5.4uH 20% 100KHz Ferrite 18A 0.0035Ohm DCR Automotive</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>553-3159-ND</t>
+  </si>
+  <si>
+    <t>7447709150</t>
+  </si>
+  <si>
+    <t>WURTH ELEKTRONIK - 7447709150 - Power Inductor (SMD), 15 µH, 6.5 A, Shielded, 8 A, WE-PD Series, 12mm x 12mm x 10mm</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>732-1242-1-ND</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>NR4018T6R8M</t>
   </si>
   <si>
     <t>6.8uH 1.06A</t>
   </si>
   <si>
-    <t>L?</t>
-  </si>
-  <si>
-    <t>3.9k</t>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>LMNR4018T6R8M</t>
+  </si>
+  <si>
+    <t>MOSFET N-Channel, 40V, 100A, 272W</t>
+  </si>
+  <si>
+    <t>MOSFET N-Channel, 40V, 100A, 272W, Enh-Mode</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q7, Q8</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>PSMN1R8-40YLC,115</t>
+  </si>
+  <si>
+    <t>1727-1052-6-ND</t>
+  </si>
+  <si>
+    <t>IPC50N04S5L5R5ATMA1</t>
+  </si>
+  <si>
+    <t>N-CHANNEL_30/40V</t>
+  </si>
+  <si>
+    <t>Q3, Q4, Q5, Q6</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>IPC50N04S5L5R5ATMA1DKR-ND</t>
+  </si>
+  <si>
+    <t>BC856A,215</t>
+  </si>
+  <si>
+    <t>PNP 65V 100mA 250mW</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>BC846B,215</t>
+  </si>
+  <si>
+    <t>NPN 65V 100mA 250mW</t>
+  </si>
+  <si>
+    <t>Q10, Q12, Q13, Q14, Q15</t>
+  </si>
+  <si>
+    <t>568-1632-1-ND</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>568-4869-1-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>Res General Purpose Thick Film 0603 10K Ohm 1% 1/10W ±100ppm/°C Molded SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>R1, R9, R10, R11, R12, R13, R14, R19, R20, R21, R22, R23, R24, R28, R29, R30, R31, R32, R33, R34, R35, R37, R38, R39, R40, R41, R42, R44, R52, R53, R55, R63, R64, R65, R71, R73, R81, R94</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>311-10.0KHRDKR-ND</t>
+  </si>
+  <si>
+    <t>CRCW06031K30FKEA</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 1.3K Ohm 1% 1/10W 100ppm/C Molded SMD SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>R2, R3, R47, R58, R75, R86</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>541-1.30KHDKR-ND</t>
+  </si>
+  <si>
+    <t>ERJ3EKF10R0V</t>
+  </si>
+  <si>
+    <t>PANASONIC - ERJ3EKF10R0V - SMD Chip Resistor, 0603 [1608 Metric], 10 ohm, ERJ3EK Series, 75 V, Thick Film, 100 mW</t>
+  </si>
+  <si>
+    <t>R4, R5, R15, R16, R17, R18, R49, R50, R60, R61, R69, R70, R76, R77</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>P10.0HDKR-ND</t>
+  </si>
+  <si>
+    <t>HCS2512FTL300</t>
+  </si>
+  <si>
+    <t>300 µOhms ±1% 3W Chip Resistor 2512 (6432 Metric) Automotive AEC-Q200, Current Sense, Moisture Resistant Metal Element</t>
+  </si>
+  <si>
+    <t>R6, R7, R8, R74</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>HCS2512FTL300DKR-ND</t>
+  </si>
+  <si>
+    <t>20.5 Ohm, 1%, 1/10W , 0603, SMD</t>
+  </si>
+  <si>
+    <t>R25, R26, R78, R79</t>
+  </si>
+  <si>
+    <t>ERJ3EKF20R5V</t>
+  </si>
+  <si>
+    <t>P20.5HCT-ND</t>
+  </si>
+  <si>
+    <t>715R, 1%, 1/10W, 0603, SMD</t>
+  </si>
+  <si>
+    <t>R27, R88, R90, R93</t>
+  </si>
+  <si>
+    <t>CRCW0603715RFKEA</t>
+  </si>
+  <si>
+    <t>541-715HDKR-ND</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10kR, 1%, 1/10W, 0603 SMD</t>
+  </si>
+  <si>
+    <t>R36, R108, R113, R114, R115, R116, R117, R118, R119, R120, R121, R122</t>
+  </si>
+  <si>
+    <t>Yageo Phycomp</t>
+  </si>
+  <si>
+    <t>311-10.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>CRCW0603150RFKTA</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 150 Ohm 1% 1/10W 100ppm/C Molded SMD SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>541-CRCW0603150RFKTADKR-ND</t>
+  </si>
+  <si>
+    <t>CSR1206-0R002F1</t>
+  </si>
+  <si>
+    <t>RES 0.002 OHM 1W 1% 1206</t>
+  </si>
+  <si>
+    <t>R45, R56, R67</t>
+  </si>
+  <si>
+    <t>Riedon</t>
+  </si>
+  <si>
+    <t>696-1370-1-ND</t>
+  </si>
+  <si>
+    <t>CRCW060344K2FKEA</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 44.2K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>541-44.2KHDKR-ND</t>
+  </si>
+  <si>
+    <t>CRCW06035M49FKEA</t>
+  </si>
+  <si>
+    <t>RES SMD 5.49M OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>541-5.49MHDKR-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF7322V</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 73.2K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>P73.2KHDKR-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF5620V</t>
+  </si>
+  <si>
+    <t>Resistor Thick Film 0603 562 Ohm 1% 1/10 Watt &amp;plusmn;100ppm</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>P562HDKR-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4123V</t>
+  </si>
+  <si>
+    <t>GLOVE, POLYAMIDE, L/FREE, PU, SIZE 6 - More Details</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>P412KHDKR-ND</t>
+  </si>
+  <si>
+    <t>CRCW06039M76FKEA</t>
+  </si>
+  <si>
+    <t>RES SMD 9.76M OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>541-9.76MHDKR-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1913V</t>
+  </si>
+  <si>
+    <t>RES, THICK FILM, 191KOHM, 0.1W, 0603</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>P191KHDKR-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF7680V</t>
+  </si>
+  <si>
+    <t>SMD Chip Resistor, 0603 [1608 Metric], 768 ohm, ERJ3EK Series, 75 V, Thick Film, 100 mW</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>P768HDKR-ND</t>
+  </si>
+  <si>
+    <t>CRCW0603-100KFKEA</t>
+  </si>
+  <si>
+    <t>Resistor; Thick Film; 100 Kilohms; 0.1 W; 1%; SMT; 0603; TCR 37 ppm/DegC; Tape and Reel</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>541-100KHCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-076K65L</t>
+  </si>
+  <si>
+    <t>RES SMD 6.65K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R72</t>
+  </si>
+  <si>
+    <t>311-6.65KHRDKR-ND</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>R80, R87, R89, R91, R92, R97, R98</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>3.9k, 5%, 1/8W, 0805 SMD</t>
   </si>
   <si>
-    <t>R?</t>
+    <t>R82</t>
+  </si>
+  <si>
+    <t>RMCF0805JT3K90</t>
+  </si>
+  <si>
+    <t>RMCF0805JT3K90DKR-ND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>680, 5%, 1/8W, 0805 SMD</t>
+  </si>
+  <si>
+    <t>R83</t>
+  </si>
+  <si>
+    <t>RMCF0805JT680R</t>
+  </si>
+  <si>
+    <t>RMCF0805JT680RDKR-ND</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>150R, 1%, 1/10W, 0603, SMD</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R84, R104</t>
+  </si>
+  <si>
+    <t>ERJ3EKF1500V</t>
+  </si>
+  <si>
+    <t>P150HDKR-ND</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>100R, 1%, 1/10W, 0603 SMD</t>
   </si>
   <si>
-    <t>150R, 1%, 1/10W, 0603, SMD</t>
-  </si>
-  <si>
-    <t>RES SMD 150 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>680, 5%, 1/8W, 0805 SMD</t>
+    <t>R85</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>311-100HRCT-ND</t>
+  </si>
+  <si>
+    <t>1kR, 1%, 1/10W , 0603, SMD</t>
+  </si>
+  <si>
+    <t>R95, R96, R103, R105</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.00KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0733RL</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 33 Ohm 1% 1/10W +/-100ppm/ßC Molded SMD Paper T/R</t>
+  </si>
+  <si>
+    <t>R99, R101</t>
+  </si>
+  <si>
+    <t>311-33.0HRDKR-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07120RL</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 120 Ohm 1% 0.1W(1/10W) ±100ppm/C Epoxy SMD T/R</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>311-120HRDKR-ND</t>
+  </si>
+  <si>
+    <t>26.1kR, 1%, 1/10W, 0603 SMD</t>
+  </si>
+  <si>
+    <t>R102</t>
+  </si>
+  <si>
+    <t>RC0603FR-0726K1L</t>
+  </si>
+  <si>
+    <t>311-26.1KHRDKR-ND</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R106</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>100kR, 1%, 1/10W, 0603 SMD</t>
+  </si>
+  <si>
+    <t>R107, R109, R110, R111, R112</t>
+  </si>
+  <si>
+    <t>RC0603JR-07100KL</t>
+  </si>
+  <si>
+    <t>311-100KGRCT-ND</t>
+  </si>
+  <si>
+    <t>4 pin Tacitle Switch</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>DPDT, 12V, 200mA, SMT</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Nidec Copal</t>
+  </si>
+  <si>
+    <t>CL-SB-22A-01T</t>
+  </si>
+  <si>
+    <t>563-1338-6-ND</t>
+  </si>
+  <si>
+    <t>PESD36VS2UT,215</t>
+  </si>
+  <si>
+    <t>TVS DIODE 36V 60V SOT23</t>
+  </si>
+  <si>
+    <t>TVS1, TVS2</t>
+  </si>
+  <si>
+    <t>1727-5397-6-ND</t>
+  </si>
+  <si>
+    <t>INA226AIDGSR</t>
+  </si>
+  <si>
+    <t>Bi Directional Current and Power Monitor 10-Pin VSSOP T/R</t>
+  </si>
+  <si>
+    <t>U1, U2, U3, U6, U8, U10, U11</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>296-29034-6-ND</t>
+  </si>
+  <si>
+    <t>MIC5014YM-TR</t>
+  </si>
+  <si>
+    <t>High-Side or Low-Side Gate Driver IC Non-Inverting 8-SOIC</t>
+  </si>
+  <si>
+    <t>U4, U12</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>576-1233-6-ND</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>LM3150MHX/NOPB</t>
+  </si>
+  <si>
+    <t>IC REG CTRLR BUCK 14TSSOP</t>
+  </si>
+  <si>
+    <t>U5, U7</t>
+  </si>
+  <si>
+    <t>TI National Semiconductor</t>
+  </si>
+  <si>
+    <t>296-35276-1-ND</t>
+  </si>
+  <si>
+    <t>LMR33630ADDA</t>
+  </si>
+  <si>
+    <t>SIMPLE SWITCHER 3.8V TO 36V, 3A</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>LMR33630ADDAR</t>
+  </si>
+  <si>
+    <t>296-49763-6-ND</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>BD9G101G-TR</t>
+  </si>
+  <si>
+    <t>DC-DC Regulator, 6V-42V in, 1V-29.4V out, 500mA</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>BD9G101G-DKR-ND</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>3.3V 250mA Linear Reg LDO</t>
@@ -159,19 +1361,130 @@
     <t>IC REG LINEAR 3.3V 250MA SOT23-3</t>
   </si>
   <si>
-    <t>U?</t>
-  </si>
-  <si>
-    <t>Digi-Key</t>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>Diodes</t>
   </si>
   <si>
     <t>AP2138N-3.3TRG1</t>
   </si>
   <si>
-    <t>CMP-045-0010-1</t>
-  </si>
-  <si>
-    <t>DC-DC Regulator, 6V-42V in, 1V-29.4V out, 500mA</t>
+    <t>AP2138N-3.3TRG1DIDKR-ND</t>
+  </si>
+  <si>
+    <t>STM32F413RGT6</t>
+  </si>
+  <si>
+    <t>STMICROELECTRONICS - STM32F413RGT6 - MCU, ARM CORTEX-M4, 100MHZ, LQFP-64</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>497-17011-ND</t>
+  </si>
+  <si>
+    <t>CD74HC194PWR</t>
+  </si>
+  <si>
+    <t>IC SHFT REGSTR UNIV BIDIR16TSSOP</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>296-12794-6-ND</t>
+  </si>
+  <si>
+    <t>TJA1042T/3,118</t>
+  </si>
+  <si>
+    <t>1/1 Transceiver Half CANbus 8-SO</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>568-8678-1-ND</t>
+  </si>
+  <si>
+    <t>I2C Humidity and Temperature Sensor</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+  </si>
+  <si>
+    <t>SI7021-A20-GM</t>
+  </si>
+  <si>
+    <t>336-3140-5-ND</t>
+  </si>
+  <si>
+    <t>Pressure Sensor</t>
+  </si>
+  <si>
+    <t>1kPa to 120 kPa</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>SENSOR SOLUTIONS - TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>MS560702BA03-50</t>
+  </si>
+  <si>
+    <t>223-1198-6-ND</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>8Mhz 40ESR  16pF -20°C ~ 70°C</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>GC0800044</t>
+  </si>
+  <si>
+    <t>GC0800044CT-ND</t>
+  </si>
+  <si>
+    <t>3557-2</t>
+  </si>
+  <si>
+    <t>Fuse Holder; Auto; 2 in1 Blade; THM; 1 Fuse; Vertical; 30 Amps</t>
+  </si>
+  <si>
+    <t>XF1, XF2, XF3, XF4, XF5</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>36-3557-2-ND</t>
+  </si>
+  <si>
+    <t>3555-2</t>
+  </si>
+  <si>
+    <t>FUSE HOLDER MAXI AUTO BLADE PC</t>
+  </si>
+  <si>
+    <t>XF6</t>
+  </si>
+  <si>
+    <t>36-3555-2-ND</t>
   </si>
 </sst>
 </file>
@@ -234,10 +1547,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,17 +1866,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6DBED1-9491-41BC-842E-990728170FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B909C7C2-4C87-4760-AAAD-EE97D8886354}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -614,328 +1927,3662 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="L30" s="4">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="L31" s="4">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L33" s="4">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="L34" s="4">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="4">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.191</v>
+      </c>
+      <c r="L35" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="4">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K48" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="L48" s="4">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="L49" s="4">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="L51" s="4">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="L52" s="4">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" s="4">
+        <v>38</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="4">
+        <v>6</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K57" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="4">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K58" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="L59" s="4">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K60" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K61" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E62" s="4">
+        <v>12</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" s="4">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K75" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E78" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="F78" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="F79" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K80" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E82" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F82" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E83" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="F83" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E84" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="F84" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="F88" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E89" s="4">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K89" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="L89" s="4">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K90" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="L90" s="4">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K91" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="L91" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E92" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="F92" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K92" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="L92" s="4">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="F93" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E94" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="F94" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E95" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="F95" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K95" s="4">
+        <v>10.39</v>
+      </c>
+      <c r="L95" s="4">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E96" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="F96" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L96" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E97" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="F97" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="L97" s="4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E98" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="K98" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="L98" s="4">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K99" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L99" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L100" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E101" s="4">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="L101" s="4">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="L102" s="4">
+        <v>1.49</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1198,7 +5845,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E34E76-02A0-4044-9771-542F84ED0FF1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3E756C-6DCA-494A-BCBE-B5B7FF9F9C66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1218,7 +5865,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD44A3E-E686-4820-AEB7-019F4ECB0F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1734F637-A3F2-4D44-B203-EAC367008C26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1226,19 +5873,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D43A3334-3D4D-4AA5-9149-30D94EBC5DE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C59FB213-C6F3-4341-90CA-6EDA6233E525}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8966a34b-ec6c-46f3-826c-d8f2f7d74935"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c534bb1-62b0-46e0-9ae3-b9112d146ccd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Power_Board_2/BOM/Bill of Materials-Power_Board_2.xlsx
+++ b/Power_Board_2/BOM/Bill of Materials-Power_Board_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvicca0-my.sharepoint.com/personal/poornack_uvicca0_onmicrosoft_com/Documents/University/Clubs/AUVic/Hardware/PCB-Power_Board_2/Power_Board_2/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{687411CE-57AF-473F-BA63-A62D128370D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{687411CE-57AF-473F-BA63-A62D128370D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7B2042F-526C-47AB-979B-FF0E17339F69}"/>
   <bookViews>
-    <workbookView xWindow="-25965" yWindow="1155" windowWidth="17280" windowHeight="9420" xr2:uid="{661FFB2B-6F0B-49C8-B54D-7B2428E1D6C5}"/>
+    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="13824" windowHeight="7536" xr2:uid="{661FFB2B-6F0B-49C8-B54D-7B2428E1D6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Power_Board_2" sheetId="1" r:id="rId1"/>
@@ -1870,9 +1870,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5579,6 +5581,18 @@
         <v>1.49</v>
       </c>
     </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f>SUM(E2:E102)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1048576">
+        <f>SUM(E2:E1048575)</f>
+        <v>624</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
@@ -5587,6 +5601,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024846BE2D35DE54A9BE8BBA42D0700AD" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="641b7ec275f27219802da9e743dd1056">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="5c534bb1-62b0-46e0-9ae3-b9112d146ccd" xmlns:ns4="8966a34b-ec6c-46f3-826c-d8f2f7d74935" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1271ae291c08be0062a66eeb80c51a0" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5826,25 +5858,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C59FB213-C6F3-4341-90CA-6EDA6233E525}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1734F637-A3F2-4D44-B203-EAC367008C26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C3E756C-6DCA-494A-BCBE-B5B7FF9F9C66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5862,22 +5894,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1734F637-A3F2-4D44-B203-EAC367008C26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C59FB213-C6F3-4341-90CA-6EDA6233E525}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>